--- a/work/V1.2_新增字段(1月1号更新).xlsx
+++ b/work/V1.2_新增字段(1月1号更新).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D701BA4E-8EC9-4C3F-A180-FAB668825386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DCCA0C-0E5E-4F72-A4FD-8C62437AB72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="930" windowWidth="26565" windowHeight="14685" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="507">
   <si>
     <t>字段名</t>
   </si>
@@ -3827,6 +3827,22 @@
       </rPr>
       <t>新增字段lab_project(试验项目)</t>
     </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>smooth_width</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥头平顺宽度</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>drain_tube_type</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>排水管类型</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -4202,7 +4218,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7436D313-2C04-43EC-8CD2-B7DE49CF44D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4251,7 +4267,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F2BC720-98AD-41A8-9404-D6073AEB33DE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4272,23 +4288,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4596,10 +4599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:H253"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C239" sqref="C239"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I202" sqref="I202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7234,34 +7237,47 @@
         <v>353</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B209" t="s">
-        <v>96</v>
-      </c>
-      <c r="C209" t="s">
-        <v>130</v>
-      </c>
-      <c r="D209" s="6" t="s">
-        <v>400</v>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="1"/>
+      <c r="B207" t="s">
+        <v>483</v>
+      </c>
+      <c r="C207" t="s">
+        <v>484</v>
+      </c>
+      <c r="D207" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="1"/>
+      <c r="B208" t="s">
+        <v>481</v>
+      </c>
+      <c r="C208" t="s">
+        <v>482</v>
+      </c>
+      <c r="D208" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>401</v>
+        <v>96</v>
       </c>
       <c r="C210" t="s">
-        <v>402</v>
-      </c>
-      <c r="D210" t="s">
-        <v>403</v>
+        <v>130</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C211" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D211" t="s">
         <v>403</v>
@@ -7269,10 +7285,10 @@
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C212" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D212" t="s">
         <v>403</v>
@@ -7280,10 +7296,10 @@
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C213" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D213" t="s">
         <v>403</v>
@@ -7291,10 +7307,10 @@
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C214" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D214" t="s">
         <v>403</v>
@@ -7302,10 +7318,10 @@
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C215" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D215" t="s">
         <v>403</v>
@@ -7313,10 +7329,10 @@
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C216" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D216" t="s">
         <v>403</v>
@@ -7324,10 +7340,10 @@
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C217" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D217" t="s">
         <v>403</v>
@@ -7335,10 +7351,10 @@
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C218" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D218" t="s">
         <v>403</v>
@@ -7346,10 +7362,10 @@
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C219" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D219" t="s">
         <v>403</v>
@@ -7357,10 +7373,10 @@
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="C220" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D220" t="s">
         <v>403</v>
@@ -7368,10 +7384,10 @@
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C221" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D221" t="s">
         <v>403</v>
@@ -7379,10 +7395,10 @@
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="C222" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D222" t="s">
         <v>403</v>
@@ -7390,10 +7406,10 @@
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="C223" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D223" t="s">
         <v>403</v>
@@ -7401,46 +7417,45 @@
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C224" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D224" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="1"/>
-      <c r="B226" t="s">
-        <v>428</v>
-      </c>
-      <c r="C226" t="s">
-        <v>429</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>430</v>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
+        <v>388</v>
+      </c>
+      <c r="C225" t="s">
+        <v>427</v>
+      </c>
+      <c r="D225" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" t="s">
-        <v>96</v>
+        <v>428</v>
       </c>
       <c r="C227" t="s">
-        <v>130</v>
-      </c>
-      <c r="D227" t="s">
-        <v>431</v>
+        <v>429</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
-      <c r="B228" s="4" t="s">
-        <v>432</v>
+      <c r="B228" t="s">
+        <v>96</v>
       </c>
       <c r="C228" t="s">
-        <v>433</v>
+        <v>130</v>
       </c>
       <c r="D228" t="s">
         <v>431</v>
@@ -7448,11 +7463,11 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
-      <c r="B229" t="s">
-        <v>434</v>
+      <c r="B229" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="C229" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D229" t="s">
         <v>431</v>
@@ -7461,10 +7476,10 @@
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C230" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D230" t="s">
         <v>431</v>
@@ -7473,10 +7488,10 @@
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C231" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D231" t="s">
         <v>431</v>
@@ -7485,10 +7500,10 @@
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C232" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D232" t="s">
         <v>431</v>
@@ -7496,11 +7511,11 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
-      <c r="B233" s="4" t="s">
-        <v>442</v>
+      <c r="B233" t="s">
+        <v>440</v>
       </c>
       <c r="C233" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D233" t="s">
         <v>431</v>
@@ -7508,11 +7523,11 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
-      <c r="B234" t="s">
-        <v>444</v>
+      <c r="B234" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="C234" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D234" t="s">
         <v>431</v>
@@ -7521,10 +7536,10 @@
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C235" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D235" t="s">
         <v>431</v>
@@ -7533,10 +7548,10 @@
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C236" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D236" t="s">
         <v>431</v>
@@ -7545,10 +7560,10 @@
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C237" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D237" t="s">
         <v>431</v>
@@ -7556,11 +7571,11 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
-      <c r="B238" s="4" t="s">
-        <v>452</v>
+      <c r="B238" t="s">
+        <v>450</v>
       </c>
       <c r="C238" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D238" t="s">
         <v>431</v>
@@ -7568,11 +7583,11 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
-      <c r="B239" t="s">
-        <v>454</v>
+      <c r="B239" s="4" t="s">
+        <v>452</v>
       </c>
       <c r="C239" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D239" t="s">
         <v>431</v>
@@ -7581,10 +7596,10 @@
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C240" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D240" t="s">
         <v>431</v>
@@ -7593,10 +7608,10 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C241" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D241" t="s">
         <v>431</v>
@@ -7605,10 +7620,10 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C242" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D242" t="s">
         <v>431</v>
@@ -7617,10 +7632,10 @@
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C243" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D243" t="s">
         <v>431</v>
@@ -7629,10 +7644,10 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C244" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D244" t="s">
         <v>431</v>
@@ -7641,37 +7656,37 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C245" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D245" t="s">
         <v>431</v>
-      </c>
-      <c r="H245" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C246" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D246" t="s">
         <v>431</v>
       </c>
+      <c r="H246" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
-      <c r="B247" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>471</v>
+      <c r="B247" t="s">
+        <v>469</v>
+      </c>
+      <c r="C247" t="s">
+        <v>470</v>
       </c>
       <c r="D247" t="s">
         <v>431</v>
@@ -7679,11 +7694,11 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
-      <c r="B248" t="s">
-        <v>291</v>
-      </c>
-      <c r="C248" t="s">
-        <v>472</v>
+      <c r="B248" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="D248" t="s">
         <v>431</v>
@@ -7692,10 +7707,10 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C249" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D249" t="s">
         <v>431</v>
@@ -7704,10 +7719,10 @@
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" t="s">
-        <v>474</v>
+        <v>293</v>
       </c>
       <c r="C250" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D250" t="s">
         <v>431</v>
@@ -7716,10 +7731,10 @@
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" t="s">
-        <v>297</v>
+        <v>474</v>
       </c>
       <c r="C251" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D251" t="s">
         <v>431</v>
@@ -7728,12 +7743,24 @@
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" t="s">
+        <v>297</v>
+      </c>
+      <c r="C252" t="s">
+        <v>476</v>
+      </c>
+      <c r="D252" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" s="1"/>
+      <c r="B253" t="s">
         <v>477</v>
       </c>
-      <c r="C252" s="4" t="s">
+      <c r="C253" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D253" t="s">
         <v>431</v>
       </c>
     </row>
@@ -7750,7 +7777,7 @@
   <dimension ref="C27:F34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7767,25 +7794,25 @@
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="F33" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="F34" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7845,8 +7872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16416F09-6254-4ADB-B4E1-238E5F623979}">
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
